--- a/target/test-classes/com/data/Test_Data.xlsx
+++ b/target/test-classes/com/data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="72" windowWidth="9492" windowHeight="7392" activeTab="4"/>
+    <workbookView xWindow="96" yWindow="72" windowWidth="9492" windowHeight="7392" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Amount_Income" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>SIN</t>
   </si>
   <si>
-    <t>Loan Amount</t>
-  </si>
-  <si>
     <t>LastName</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>BOD</t>
+  </si>
+  <si>
+    <t>Loan_Amount</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16385"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -791,7 +791,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="1"/>
@@ -49976,8 +49976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49991,25 +49991,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
